--- a/DB.xlsx
+++ b/DB.xlsx
@@ -556,14 +556,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="0.0%"/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -608,6 +608,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -615,8 +623,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,17 +692,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,91 +737,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,67 +771,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,13 +795,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,13 +909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,7 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,31 +933,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,30 +956,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1008,6 +984,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1022,13 +1022,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,159 +1046,155 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1206,31 +1206,31 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1305,19 +1305,19 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-      <numFmt numFmtId="177" formatCode="0.00_ "/>
+      <numFmt numFmtId="178" formatCode="0.00_ "/>
     </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
-      <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="0_ "/>
+      <numFmt numFmtId="179" formatCode="0_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="0_ "/>
+      <numFmt numFmtId="179" formatCode="0_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1328,13 +1328,13 @@
       <font>
         <color rgb="FF0070C0"/>
       </font>
-      <numFmt numFmtId="177" formatCode="0.00_ "/>
+      <numFmt numFmtId="178" formatCode="0.00_ "/>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF0070C0"/>
       </font>
-      <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="10" formatCode="0.00%"/>
@@ -1503,31 +1503,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0150674068199841</c:v>
+                  <c:v>0.0163398692810458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0222045995241872</c:v>
+                  <c:v>0.025599128540305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0975416336241079</c:v>
+                  <c:v>0.0898692810457516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.203013481363997</c:v>
+                  <c:v>0.183551198257081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.274385408406027</c:v>
+                  <c:v>0.272875816993464</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.203806502775575</c:v>
+                  <c:v>0.203159041394336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.114988104678826</c:v>
+                  <c:v>0.124183006535948</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0586835844567803</c:v>
+                  <c:v>0.0686274509803922</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0103092783505155</c:v>
+                  <c:v>0.0157952069716776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,28 +1795,28 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0150674068199841</c:v>
+                  <c:v>0.0163398692810458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0372720063441713</c:v>
+                  <c:v>0.0419389978213508</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.134813639968279</c:v>
+                  <c:v>0.131808278867102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.337827121332276</c:v>
+                  <c:v>0.315359477124183</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.612212529738303</c:v>
+                  <c:v>0.588235294117647</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.816019032513878</c:v>
+                  <c:v>0.791394335511983</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.931007137192704</c:v>
+                  <c:v>0.91557734204793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.989690721649485</c:v>
+                  <c:v>0.984204793028322</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -5617,8 +5617,8 @@
   <sheetPr/>
   <dimension ref="C1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5702,15 +5702,15 @@
         <v>151</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6">
         <f>D2/D$11</f>
-        <v>0.0150674068199841</v>
+        <v>0.0163398692810458</v>
       </c>
       <c r="F2" s="6">
         <f>SUM(D$2:D2)/D$11</f>
-        <v>0.0150674068199841</v>
+        <v>0.0163398692810458</v>
       </c>
       <c r="G2">
         <v>318</v>
@@ -5765,15 +5765,15 @@
         <v>152</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E10" si="1">D3/SUM(D$11)</f>
-        <v>0.0222045995241872</v>
+        <v>0.025599128540305</v>
       </c>
       <c r="F3" s="6">
         <f>SUM(D$2:D3)/D$11</f>
-        <v>0.0372720063441713</v>
+        <v>0.0419389978213508</v>
       </c>
       <c r="G3">
         <v>386</v>
@@ -5792,11 +5792,11 @@
       </c>
       <c r="L3" s="9">
         <f t="shared" ref="L3:L10" si="3">K3*D3</f>
-        <v>0.0510018214936247</v>
+        <v>0.0856102003642986</v>
       </c>
       <c r="M3" s="9">
         <f>E3*10000*K3</f>
-        <v>0.404455364739292</v>
+        <v>0.466286494358925</v>
       </c>
       <c r="N3" s="13">
         <f t="shared" ref="N3:N10" si="4">59138*H3*K3</f>
@@ -5830,15 +5830,15 @@
         <v>153</v>
       </c>
       <c r="D4">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>0.0975416336241079</v>
+        <v>0.0898692810457516</v>
       </c>
       <c r="F4" s="6">
         <f>SUM(D$2:D4)/D$11</f>
-        <v>0.134813639968279</v>
+        <v>0.131808278867102</v>
       </c>
       <c r="G4">
         <v>2192</v>
@@ -5857,11 +5857,11 @@
       </c>
       <c r="L4" s="9">
         <f t="shared" si="3"/>
-        <v>0.237911025145068</v>
+        <v>0.319148936170213</v>
       </c>
       <c r="M4" s="9">
         <f t="shared" ref="M3:M10" si="9">E4*10000*K4</f>
-        <v>1.88668536990538</v>
+        <v>1.7382839660687</v>
       </c>
       <c r="N4" s="13">
         <f t="shared" si="4"/>
@@ -5895,15 +5895,15 @@
         <v>154</v>
       </c>
       <c r="D5">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>0.203013481363997</v>
+        <v>0.183551198257081</v>
       </c>
       <c r="F5" s="6">
         <f>SUM(D$2:D5)/D$11</f>
-        <v>0.337827121332276</v>
+        <v>0.315359477124183</v>
       </c>
       <c r="G5">
         <v>3995</v>
@@ -5922,11 +5922,11 @@
       </c>
       <c r="L5" s="9">
         <f t="shared" si="3"/>
-        <v>0.606315789473684</v>
+        <v>0.798157894736842</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="9"/>
-        <v>4.80821403230519</v>
+        <v>4.34726522187823</v>
       </c>
       <c r="N5" s="13">
         <f t="shared" si="4"/>
@@ -5941,11 +5941,11 @@
       </c>
       <c r="Q5" s="20">
         <f t="shared" si="6"/>
-        <v>0.768961201501878</v>
+        <v>1.01226533166458</v>
       </c>
       <c r="R5" s="20">
         <f t="shared" si="0"/>
-        <v>6.09802697463821</v>
+        <v>5.51342773237789</v>
       </c>
       <c r="S5" s="21">
         <f t="shared" si="7"/>
@@ -5960,15 +5960,15 @@
         <v>155</v>
       </c>
       <c r="D6">
-        <v>346</v>
+        <v>501</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0.274385408406027</v>
+        <v>0.272875816993464</v>
       </c>
       <c r="F6" s="6">
         <f>SUM(D$2:D6)/D$11</f>
-        <v>0.612212529738303</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="G6">
         <v>7267</v>
@@ -5987,11 +5987,11 @@
       </c>
       <c r="L6" s="9">
         <f t="shared" si="3"/>
-        <v>1.54373605729717</v>
+        <v>2.23529411764706</v>
       </c>
       <c r="M6" s="9">
         <f t="shared" si="9"/>
-        <v>12.2421574726183</v>
+        <v>12.1748045623478</v>
       </c>
       <c r="N6" s="13">
         <f t="shared" si="4"/>
@@ -6006,11 +6006,11 @@
       </c>
       <c r="Q6" s="20">
         <f t="shared" si="6"/>
-        <v>1.95211228842714</v>
+        <v>2.82661345809825</v>
       </c>
       <c r="R6" s="20">
         <f t="shared" si="0"/>
-        <v>15.4806684252747</v>
+        <v>15.39549813779</v>
       </c>
       <c r="S6" s="21">
         <f t="shared" si="7"/>
@@ -6025,15 +6025,15 @@
         <v>156</v>
       </c>
       <c r="D7">
-        <v>257</v>
+        <v>373</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>0.203806502775575</v>
+        <v>0.203159041394336</v>
       </c>
       <c r="F7" s="6">
         <f>SUM(D$2:D7)/D$11</f>
-        <v>0.816019032513878</v>
+        <v>0.791394335511983</v>
       </c>
       <c r="G7">
         <v>11280</v>
@@ -6055,11 +6055,11 @@
       </c>
       <c r="L7" s="9">
         <f t="shared" si="3"/>
-        <v>3.33832933653077</v>
+        <v>4.84512390087929</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" si="9"/>
-        <v>26.4736664276826</v>
+        <v>26.3895637302794</v>
       </c>
       <c r="N7" s="13">
         <f t="shared" si="4"/>
@@ -6074,11 +6074,11 @@
       </c>
       <c r="Q7" s="20">
         <f t="shared" si="6"/>
-        <v>3.82765957446809</v>
+        <v>5.55531914893617</v>
       </c>
       <c r="R7" s="20">
         <f t="shared" si="0"/>
-        <v>30.3541599878516</v>
+        <v>30.2577295693691</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" si="7"/>
@@ -6093,15 +6093,15 @@
         <v>157</v>
       </c>
       <c r="D8">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>0.114988104678826</v>
+        <v>0.124183006535948</v>
       </c>
       <c r="F8" s="6">
         <f>SUM(D$2:D8)/D$11</f>
-        <v>0.931007137192704</v>
+        <v>0.91557734204793</v>
       </c>
       <c r="G8">
         <v>10423</v>
@@ -6123,11 +6123,11 @@
       </c>
       <c r="L8" s="9">
         <f t="shared" si="3"/>
-        <v>5.22020272631947</v>
+        <v>8.20831876966097</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="9"/>
-        <v>41.3973253474978</v>
+        <v>44.7076185711382</v>
       </c>
       <c r="N8" s="13">
         <f t="shared" si="4"/>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="Q8" s="20">
         <f t="shared" si="6"/>
-        <v>7.52614410438454</v>
+        <v>11.8342127986184</v>
       </c>
       <c r="R8" s="20">
         <f t="shared" si="0"/>
-        <v>59.6839342139931</v>
+        <v>64.4564967245013</v>
       </c>
       <c r="S8" s="21">
         <f t="shared" si="7"/>
@@ -6161,15 +6161,15 @@
         <v>158</v>
       </c>
       <c r="D9">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>0.0586835844567803</v>
+        <v>0.0686274509803922</v>
       </c>
       <c r="F9" s="6">
         <f>SUM(D$2:D9)/D$11</f>
-        <v>0.989690721649485</v>
+        <v>0.984204793028322</v>
       </c>
       <c r="G9">
         <v>11320</v>
@@ -6191,11 +6191,11 @@
       </c>
       <c r="L9" s="9">
         <f t="shared" si="3"/>
-        <v>5.89280245022971</v>
+        <v>10.0336906584992</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" si="9"/>
-        <v>46.7311851723212</v>
+        <v>54.6497312554424</v>
       </c>
       <c r="N9" s="13">
         <f t="shared" si="4"/>
@@ -6210,11 +6210,11 @@
       </c>
       <c r="Q9" s="20">
         <f t="shared" si="6"/>
-        <v>11.5575971731449</v>
+        <v>19.6791519434629</v>
       </c>
       <c r="R9" s="20">
         <f t="shared" si="0"/>
-        <v>91.6542202469856</v>
+        <v>107.18492343934</v>
       </c>
       <c r="S9" s="21">
         <f t="shared" si="7"/>
@@ -6229,11 +6229,11 @@
         <v>159</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>0.0103092783505155</v>
+        <v>0.0157952069716776</v>
       </c>
       <c r="F10" s="6">
         <f>SUM(D$2:D10)/D$11</f>
@@ -6256,11 +6256,11 @@
       </c>
       <c r="L10" s="9">
         <f t="shared" si="3"/>
-        <v>1.92045454545455</v>
+        <v>4.28409090909092</v>
       </c>
       <c r="M10" s="9">
         <f t="shared" si="9"/>
-        <v>15.2296157450797</v>
+        <v>23.3338284808874</v>
       </c>
       <c r="N10" s="13">
         <f t="shared" si="4"/>
@@ -6275,11 +6275,11 @@
       </c>
       <c r="Q10" s="20">
         <f t="shared" si="6"/>
-        <v>3.07627924671866</v>
+        <v>6.86246908883394</v>
       </c>
       <c r="R10" s="20">
         <f t="shared" si="0"/>
-        <v>24.3955531064129</v>
+        <v>37.3772826189213</v>
       </c>
       <c r="S10" s="21">
         <f t="shared" si="7"/>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="D11" s="4">
         <f>SUBTOTAL(109,$D$2:$D$10)</f>
-        <v>1261</v>
+        <v>1836</v>
       </c>
       <c r="G11">
         <f>SUBTOTAL(109,Table1[N IT (Mar 23)])</f>
@@ -6307,15 +6307,15 @@
       </c>
       <c r="K11" s="10">
         <f>L11/D11</f>
-        <v>0.0149173304932149</v>
+        <v>0.0167807382282401</v>
       </c>
       <c r="L11" s="9">
         <f>SUBTOTAL(109,Table1[Exp. Deaths RO])</f>
-        <v>18.810753751944</v>
+        <v>30.8094353870488</v>
       </c>
       <c r="M11" s="16">
         <f>SUBTOTAL(109,Table1[Exp. Deaths RO (10k cases)])</f>
-        <v>149.173304932149</v>
+        <v>167.807382282401</v>
       </c>
       <c r="N11" s="9">
         <f>SUBTOTAL(109,Table1[Exp. Deaths IT (59138k cases)])</f>
@@ -6327,15 +6327,15 @@
       </c>
       <c r="P11" s="17">
         <f>Q11/D11</f>
-        <v>0.0227666562955156</v>
+        <v>0.02601853582223</v>
       </c>
       <c r="Q11" s="20">
         <f>SUBTOTAL(109,Table1[Exp. Deaths RO2])</f>
-        <v>28.7087535886452</v>
+        <v>47.7700317696143</v>
       </c>
       <c r="R11" s="22">
         <f>SUBTOTAL(109,Table1[Exp. Deaths RO (10k cases)2])</f>
-        <v>227.666562955156</v>
+        <v>260.1853582223</v>
       </c>
       <c r="S11" s="20">
         <f>SUBTOTAL(109,Table1[Exp. Deaths IT (59138 cases)2])</f>
@@ -6349,14 +6349,14 @@
       </c>
       <c r="L12" s="12">
         <f>18/L11-1</f>
-        <v>-0.043100545711001</v>
+        <v>-0.415763392808991</v>
       </c>
       <c r="O12" s="18" t="s">
         <v>161</v>
       </c>
       <c r="P12" s="19">
         <f>18/Q11-1</f>
-        <v>-0.37301353246073</v>
+        <v>-0.62319472411468</v>
       </c>
       <c r="Q12" s="19"/>
     </row>
